--- a/medicine/Sexualité et sexologie/Tout_ce_que_vous_avez_toujours_voulu_savoir_sur_le_sexe_sans_jamais_oser_le_demander/Tout_ce_que_vous_avez_toujours_voulu_savoir_sur_le_sexe_sans_jamais_oser_le_demander.xlsx
+++ b/medicine/Sexualité et sexologie/Tout_ce_que_vous_avez_toujours_voulu_savoir_sur_le_sexe_sans_jamais_oser_le_demander/Tout_ce_que_vous_avez_toujours_voulu_savoir_sur_le_sexe_sans_jamais_oser_le_demander.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tout ce que vous avez toujours voulu savoir sur le sexe (sans jamais oser le demander) — Everything You Always Wanted to Know About Sex (But Were Afraid to Ask) — est un film américain de 1972 écrit et réalisé par Woody Allen inspiré par le livre du même nom.
 </t>
@@ -511,17 +523,54 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Des aphrodisiaques permettent à un fou du roi (Woody Allen) de trouver la clé qui lui ouvrira les portes du cœur de la reine (Lynn Redgrave), avant de s'apercevoir que la clé de sa ceinture de chasteté lui serait tout de même plus utile.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des aphrodisiaques permettent à un fou du roi (Woody Allen) de trouver la clé qui lui ouvrira les portes du cœur de la reine (Lynn Redgrave), avant de s'apercevoir que la clé de sa ceinture de chasteté lui serait tout de même plus utile.
 Les actes contre nature ont un arrière goût « laineux » lorsqu'un bon docteur (Gene Wilder) tombe fou amoureux d'une brebis.
 Comment un jeune marié peut-il vérifier si sa femme est frigide ?
 Petit problème lors de la présentation de deux familles bientôt unies par le futur mariage de leurs enfants, lorsque le père de la promise s'habille des vêtements de la mère du promis...
 Jack Barr vous permet de découvrir le fétichisme en 20 questions dans un jeu télévisé intitulé : Quelle est ma perversion?.
 Un homme, « prodige sexuel », et une femme, journaliste de « globe », ont rendez-vous chez un savant faisant des expériences sur le sexe. Un téton gonflé de lait et de silicone s'échappe.
 Le cerveau et le reste du corps humain, tel un centre de lancement spatial, lors d'un rendez-vous amoureux qui finit par se conclure.
-Parties
-Le film se compose de plusieurs sketches :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Tout_ce_que_vous_avez_toujours_voulu_savoir_sur_le_sexe_sans_jamais_oser_le_demander</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tout_ce_que_vous_avez_toujours_voulu_savoir_sur_le_sexe_sans_jamais_oser_le_demander</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Synopsis</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Parties</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le film se compose de plusieurs sketches :
 Est-ce que les aphrodisiaques fonctionnent ?, dans lequel le fou du roi tente de séduire la reine.
 Qu'est-ce que la sodomie ?, sketch qui traite en fait de la zoophilie. Avec Gene Wilder.
 Est-ce que des femmes ont du mal à atteindre l'orgasme ?, hommage à Michelangelo Antonioni.
@@ -532,31 +581,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Tout_ce_que_vous_avez_toujours_voulu_savoir_sur_le_sexe_sans_jamais_oser_le_demander</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Sexualité et sexologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Tout_ce_que_vous_avez_toujours_voulu_savoir_sur_le_sexe_sans_jamais_oser_le_demander</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Titre français : Tout ce que vous avez toujours voulu savoir sur le sexe (sans jamais oser le demander)
 Titre original : Everything You Always Wanted to Know About Sex* (*But Were Afraid to Ask)
@@ -573,7 +624,7 @@
 Producteur associé : Jack Grossberg
 Société de production : Rollins-Joffe Productions
 Distribution : United Artists
-Budget : 2 millions de $[1]
+Budget : 2 millions de $
 Format : couleur et noir et blanc – 1,85:1 – 35mm — son monophonique
 Pays :  États-Unis
 Langues : anglais, italien
@@ -588,31 +639,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Tout_ce_que_vous_avez_toujours_voulu_savoir_sur_le_sexe_sans_jamais_oser_le_demander</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Sexualité et sexologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Tout_ce_que_vous_avez_toujours_voulu_savoir_sur_le_sexe_sans_jamais_oser_le_demander</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Woody Allen (V.F. : Bernard Murat) : Victor / Fabrizio / le bouffon / un spermatozoïde
 John Carradine (V.F. : Jean Martinelli) : docteur Bernardo
@@ -633,42 +686,6 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Tout_ce_que_vous_avez_toujours_voulu_savoir_sur_le_sexe_sans_jamais_oser_le_demander</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Sexualité et sexologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Tout_ce_que_vous_avez_toujours_voulu_savoir_sur_le_sexe_sans_jamais_oser_le_demander</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Production</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Genèse
-À l'origine, Tout ce que vous avez toujours voulu savoir sur le sexe sans jamais oser le demander est un livre éponyme (en) écrit par le docteur David Reuben (en), sorti en 1969, qui fut un succès de librairie. L'acteur Elliott Gould et le producteur Jack Brodsky ont été les premiers à mettre une option pour les droits du livre afin d'en faire une adaptation cinématographique[2], mais les droits furent finalement vendus à United Artists, une fois qu'ils eurent déterminé la difficulté d'adapter le texte[2].
-Woody Allen s'est chargé de l'écriture, à l'origine avec Marshall Brickman[2]. Allen a fait le film comme une forme de vengeance envers Reuben, qui, lors de la promotion du livre au Tonight Show Starring Johnny Carson, utilisa une réplique de Prends l'oseille et tire-toi, écrit, réalisé et interprété par Allen, pour répondre à une question de Carson : « le sexe est-il sale ? »[2], ce qui offensa le réalisateur[2].
-Le script est composé de sept sketches, qui sont les titres des sept chapitres du livre[2]. Le script original était composé d'un sketch où un homme se masturbe aux temps bibliques, mais n'a pas été filmé[2].
-Tournage
-Le tournage de Tout ce que vous avez toujours voulu savoir sur le sexe sans jamais oser le demander débuta en janvier 1972[3] en Californie[4] et s'est achevé en mars 1972[3].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
@@ -690,12 +707,90 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Genèse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l'origine, Tout ce que vous avez toujours voulu savoir sur le sexe sans jamais oser le demander est un livre éponyme (en) écrit par le docteur David Reuben (en), sorti en 1969, qui fut un succès de librairie. L'acteur Elliott Gould et le producteur Jack Brodsky ont été les premiers à mettre une option pour les droits du livre afin d'en faire une adaptation cinématographique, mais les droits furent finalement vendus à United Artists, une fois qu'ils eurent déterminé la difficulté d'adapter le texte.
+Woody Allen s'est chargé de l'écriture, à l'origine avec Marshall Brickman. Allen a fait le film comme une forme de vengeance envers Reuben, qui, lors de la promotion du livre au Tonight Show Starring Johnny Carson, utilisa une réplique de Prends l'oseille et tire-toi, écrit, réalisé et interprété par Allen, pour répondre à une question de Carson : « le sexe est-il sale ? », ce qui offensa le réalisateur.
+Le script est composé de sept sketches, qui sont les titres des sept chapitres du livre. Le script original était composé d'un sketch où un homme se masturbe aux temps bibliques, mais n'a pas été filmé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tout_ce_que_vous_avez_toujours_voulu_savoir_sur_le_sexe_sans_jamais_oser_le_demander</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tout_ce_que_vous_avez_toujours_voulu_savoir_sur_le_sexe_sans_jamais_oser_le_demander</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage de Tout ce que vous avez toujours voulu savoir sur le sexe sans jamais oser le demander débuta en janvier 1972 en Californie et s'est achevé en mars 1972.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Tout_ce_que_vous_avez_toujours_voulu_savoir_sur_le_sexe_sans_jamais_oser_le_demander</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tout_ce_que_vous_avez_toujours_voulu_savoir_sur_le_sexe_sans_jamais_oser_le_demander</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le film a été un succès commercial lors de sa sortie en salles, rapportant 18 016 290 $ aux États-Unis[1] et 1 737 735 entrées en France[5]. En Espagne, le film totalise 1 096 408 entrées[3].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film a été un succès commercial lors de sa sortie en salles, rapportant 18 016 290 $ aux États-Unis et 1 737 735 entrées en France. En Espagne, le film totalise 1 096 408 entrées.
 Il a reçu un accueil critique très favorable avec 89 % de critiques positives sur le site Rotten Tomatoes.
 </t>
         </is>
